--- a/Rúbrica de Calificación Proyecto Libre Programación Avanzada de Videojuegos.xlsx
+++ b/Rúbrica de Calificación Proyecto Libre Programación Avanzada de Videojuegos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e19620b97423e0f2/Attachments/Documentos/U/Tercero/Semestre2/VD2/proyectoLibre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rs/Desktop/Documentos/U/Tercero/Semestre2/VD2/proyectolibre2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="14_{5343F1D0-F792-4F4E-8BEB-020EDF9C4322}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1D031A15-47DB-2B4B-82AD-300064B8CC9A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E82F3-D9D5-A24C-9360-13811F5371A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -851,24 +851,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -890,10 +887,13 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1215,7 +1215,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1231,10 +1231,10 @@
       <c r="A1" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="157" t="s">
+      <c r="B1" s="156" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="158"/>
+      <c r="C1" s="157"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="G1" s="3"/>
@@ -1246,10 +1246,10 @@
       <c r="A2" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="159">
+      <c r="B2" s="158">
         <v>1</v>
       </c>
-      <c r="C2" s="160"/>
+      <c r="C2" s="159"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
@@ -1257,10 +1257,10 @@
       <c r="A3" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="161">
+      <c r="B3" s="160">
         <v>1</v>
       </c>
-      <c r="C3" s="160"/>
+      <c r="C3" s="159"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="I3" s="3"/>
@@ -1308,7 +1308,7 @@
       <c r="C7" s="15">
         <v>0</v>
       </c>
-      <c r="D7" s="153">
+      <c r="D7" s="164">
         <v>2</v>
       </c>
       <c r="E7" s="16">
@@ -1336,7 +1336,7 @@
       <c r="C8" s="23">
         <v>40</v>
       </c>
-      <c r="D8" s="148"/>
+      <c r="D8" s="150"/>
       <c r="E8" s="25">
         <v>1</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="C9" s="31">
         <v>55</v>
       </c>
-      <c r="D9" s="149"/>
+      <c r="D9" s="151"/>
       <c r="E9" s="25">
         <v>0</v>
       </c>
@@ -1450,7 +1450,7 @@
       <c r="C12" s="43">
         <v>0</v>
       </c>
-      <c r="D12" s="162">
+      <c r="D12" s="161">
         <v>1</v>
       </c>
       <c r="E12" s="16">
@@ -1490,7 +1490,7 @@
       <c r="C13" s="43">
         <v>5</v>
       </c>
-      <c r="D13" s="148"/>
+      <c r="D13" s="150"/>
       <c r="E13" s="16">
         <v>1</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="C14" s="43">
         <v>15</v>
       </c>
-      <c r="D14" s="148"/>
+      <c r="D14" s="150"/>
       <c r="E14" s="16">
         <v>0</v>
       </c>
@@ -1547,7 +1547,7 @@
       <c r="C15" s="46">
         <v>25</v>
       </c>
-      <c r="D15" s="148"/>
+      <c r="D15" s="150"/>
       <c r="E15" s="16">
         <v>0</v>
       </c>
@@ -1566,7 +1566,7 @@
       <c r="C16" s="49">
         <v>35</v>
       </c>
-      <c r="D16" s="149"/>
+      <c r="D16" s="151"/>
       <c r="E16" s="25">
         <v>0</v>
       </c>
@@ -1581,11 +1581,11 @@
       <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="154" t="s">
+      <c r="A18" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="155"/>
-      <c r="C18" s="156"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
     </row>
@@ -1599,7 +1599,7 @@
       <c r="C19" s="52">
         <v>0</v>
       </c>
-      <c r="D19" s="163">
+      <c r="D19" s="162">
         <v>2</v>
       </c>
       <c r="E19" s="16">
@@ -1620,7 +1620,7 @@
       <c r="C20" s="52">
         <v>2</v>
       </c>
-      <c r="D20" s="148"/>
+      <c r="D20" s="150"/>
       <c r="E20" s="16">
         <v>0</v>
       </c>
@@ -1639,7 +1639,7 @@
       <c r="C21" s="55">
         <v>5</v>
       </c>
-      <c r="D21" s="148"/>
+      <c r="D21" s="150"/>
       <c r="E21" s="16">
         <v>1</v>
       </c>
@@ -1658,7 +1658,7 @@
       <c r="C22" s="52">
         <v>10</v>
       </c>
-      <c r="D22" s="148"/>
+      <c r="D22" s="150"/>
       <c r="E22" s="16">
         <v>0</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="C23" s="58">
         <v>15</v>
       </c>
-      <c r="D23" s="149"/>
+      <c r="D23" s="151"/>
       <c r="E23" s="25">
         <v>0</v>
       </c>
@@ -1710,7 +1710,7 @@
       <c r="C26" s="64">
         <v>0</v>
       </c>
-      <c r="D26" s="147">
+      <c r="D26" s="163">
         <v>0</v>
       </c>
       <c r="E26" s="16">
@@ -1731,7 +1731,7 @@
       <c r="C27" s="67">
         <v>5</v>
       </c>
-      <c r="D27" s="148"/>
+      <c r="D27" s="150"/>
       <c r="E27" s="16">
         <v>0</v>
       </c>
@@ -1750,7 +1750,7 @@
       <c r="C28" s="70">
         <v>10</v>
       </c>
-      <c r="D28" s="149"/>
+      <c r="D28" s="151"/>
       <c r="E28" s="25">
         <v>0</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="C31" s="76">
         <v>0</v>
       </c>
-      <c r="D31" s="150">
+      <c r="D31" s="147">
         <v>0</v>
       </c>
       <c r="E31" s="16">
@@ -1804,7 +1804,7 @@
       <c r="C32" s="79">
         <v>10</v>
       </c>
-      <c r="D32" s="148"/>
+      <c r="D32" s="150"/>
       <c r="E32" s="16">
         <v>0</v>
       </c>
@@ -1823,7 +1823,7 @@
       <c r="C33" s="79">
         <v>20</v>
       </c>
-      <c r="D33" s="148"/>
+      <c r="D33" s="150"/>
       <c r="E33" s="16">
         <v>0</v>
       </c>
@@ -1842,7 +1842,7 @@
       <c r="C34" s="82">
         <v>30</v>
       </c>
-      <c r="D34" s="149"/>
+      <c r="D34" s="151"/>
       <c r="E34" s="25">
         <v>0</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="C37" s="88">
         <v>0</v>
       </c>
-      <c r="D37" s="150">
+      <c r="D37" s="147">
         <v>2</v>
       </c>
       <c r="E37" s="16">
@@ -1896,7 +1896,7 @@
       <c r="C38" s="88">
         <v>5</v>
       </c>
-      <c r="D38" s="151"/>
+      <c r="D38" s="148"/>
       <c r="E38" s="16">
         <v>0</v>
       </c>
@@ -1915,7 +1915,7 @@
       <c r="C39" s="91">
         <v>10</v>
       </c>
-      <c r="D39" s="151"/>
+      <c r="D39" s="148"/>
       <c r="E39" s="16">
         <v>1</v>
       </c>
@@ -1934,7 +1934,7 @@
       <c r="C40" s="94">
         <v>20</v>
       </c>
-      <c r="D40" s="152"/>
+      <c r="D40" s="149"/>
       <c r="E40" s="25">
         <v>0</v>
       </c>
@@ -1967,7 +1967,7 @@
       <c r="C43" s="100">
         <v>0</v>
       </c>
-      <c r="D43" s="150">
+      <c r="D43" s="147">
         <v>1</v>
       </c>
       <c r="E43" s="16">
@@ -1988,7 +1988,7 @@
       <c r="C44" s="100">
         <v>10</v>
       </c>
-      <c r="D44" s="151"/>
+      <c r="D44" s="148"/>
       <c r="E44" s="16">
         <v>1</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="C45" s="103">
         <v>15</v>
       </c>
-      <c r="D45" s="151"/>
+      <c r="D45" s="148"/>
       <c r="E45" s="16">
         <v>0</v>
       </c>
@@ -2026,7 +2026,7 @@
       <c r="C46" s="106">
         <v>20</v>
       </c>
-      <c r="D46" s="152"/>
+      <c r="D46" s="149"/>
       <c r="E46" s="25">
         <v>0</v>
       </c>
@@ -2059,7 +2059,7 @@
       <c r="C49" s="112">
         <v>0</v>
       </c>
-      <c r="D49" s="150">
+      <c r="D49" s="147">
         <v>2</v>
       </c>
       <c r="E49" s="16">
@@ -2080,7 +2080,7 @@
       <c r="C50" s="112">
         <v>5</v>
       </c>
-      <c r="D50" s="148"/>
+      <c r="D50" s="150"/>
       <c r="E50" s="16">
         <v>0</v>
       </c>
@@ -2099,7 +2099,7 @@
       <c r="C51" s="112">
         <v>10</v>
       </c>
-      <c r="D51" s="148"/>
+      <c r="D51" s="150"/>
       <c r="E51" s="16">
         <v>1</v>
       </c>
@@ -2118,7 +2118,7 @@
       <c r="C52" s="115">
         <v>20</v>
       </c>
-      <c r="D52" s="149"/>
+      <c r="D52" s="151"/>
       <c r="E52" s="25">
         <v>0</v>
       </c>
@@ -2151,8 +2151,8 @@
       <c r="C55" s="121">
         <v>0</v>
       </c>
-      <c r="D55" s="150">
-        <v>1</v>
+      <c r="D55" s="147">
+        <v>2</v>
       </c>
       <c r="E55" s="16">
         <v>0</v>
@@ -2172,13 +2172,13 @@
       <c r="C56" s="121">
         <v>5</v>
       </c>
-      <c r="D56" s="148"/>
+      <c r="D56" s="150"/>
       <c r="E56" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="12">
         <f t="shared" si="13"/>
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -2191,13 +2191,13 @@
       <c r="C57" s="121">
         <v>10</v>
       </c>
-      <c r="D57" s="148"/>
+      <c r="D57" s="150"/>
       <c r="E57" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14" x14ac:dyDescent="0.15">
@@ -2210,7 +2210,7 @@
       <c r="C58" s="124">
         <v>20</v>
       </c>
-      <c r="D58" s="149"/>
+      <c r="D58" s="151"/>
       <c r="E58" s="25">
         <v>0</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="C61" s="130">
         <v>0</v>
       </c>
-      <c r="D61" s="164">
+      <c r="D61" s="152">
         <v>0</v>
       </c>
       <c r="E61" s="16">
@@ -2264,7 +2264,7 @@
       <c r="C62" s="130">
         <v>5</v>
       </c>
-      <c r="D62" s="148"/>
+      <c r="D62" s="150"/>
       <c r="E62" s="16">
         <v>0</v>
       </c>
@@ -2283,7 +2283,7 @@
       <c r="C63" s="130">
         <v>10</v>
       </c>
-      <c r="D63" s="148"/>
+      <c r="D63" s="150"/>
       <c r="E63" s="16">
         <v>0</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="C64" s="133">
         <v>15</v>
       </c>
-      <c r="D64" s="149"/>
+      <c r="D64" s="151"/>
       <c r="E64" s="25">
         <v>0</v>
       </c>
@@ -2322,11 +2322,11 @@
       <c r="C66" s="134"/>
     </row>
     <row r="67" spans="1:6" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="165" t="s">
+      <c r="A67" s="153" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="155"/>
-      <c r="C67" s="156"/>
+      <c r="B67" s="154"/>
+      <c r="C67" s="155"/>
       <c r="E67" s="3" t="s">
         <v>73</v>
       </c>
@@ -2405,7 +2405,7 @@
       </c>
       <c r="F73" s="144">
         <f>SUM(F7:F71)</f>
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
@@ -5227,21 +5227,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="D37:D40"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="D19:D23"/>
     <mergeCell ref="D43:D46"/>
     <mergeCell ref="D55:D58"/>
     <mergeCell ref="D61:D64"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="D49:D52"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D19:D23"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="D37:D40"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="A18:C18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
